--- a/ขึ้นเตา.xlsx
+++ b/ขึ้นเตา.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palak\Desktop\งานทอง\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Test-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE56283-6767-4306-8D69-BD5B64F366BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E0F9C-3D51-4EE6-8C30-62A5B9FC6BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="สูตร 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4340,6 +4341,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438348</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955D1DE7-8D0C-450D-994A-B67EA50269BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6485714" cy="5009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317654</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>77512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EFAF28-F2EA-4471-B4EE-B2ADE6C96281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2868706" y="0"/>
+          <a:ext cx="6525713" cy="7428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>343309</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>98464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B5B1AB-6519-4503-B5AB-C85DA0A87152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849472" y="0"/>
+          <a:ext cx="6596190" cy="7449523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4605,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5173,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AE56"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20215,7 +20353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68193E25-26D0-4DDD-BBE3-41A11FC3F89D}">
   <dimension ref="A7:V28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -20806,7 +20944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BFD7A3-C726-421E-BF54-EADBD3ADE0FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -20830,4 +20968,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213F498-D01E-4B7C-98C0-0070E4B22A54}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="8.88671875" style="48"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>